--- a/skills.xlsx
+++ b/skills.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,43 +9,54 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14700"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Data Viz on Excel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="hhh">Sheet1!$B$2</definedName>
-  </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>favorite color</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>o</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Super Power Level</t>
+  </si>
+  <si>
+    <t>Level ID</t>
+  </si>
+  <si>
+    <t>I don't have any idea</t>
+  </si>
+  <si>
+    <t>I have heard about it but never used</t>
+  </si>
+  <si>
+    <t>I suddenly use it</t>
+  </si>
+  <si>
+    <t>I'm a master Jedi on it!</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -54,7 +65,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -88,27 +99,20 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:A6" totalsRowShown="0">
-  <autoFilter ref="A1:A6"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="favorite color"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -153,9 +157,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -183,14 +187,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -218,6 +239,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -370,121 +408,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
-      </c>
-      <c r="D1">
-        <v>5</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <f>IF(C1&gt;4,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <f t="shared" ref="D2:I2" si="0">IF(D1&gt;4,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <f>COUNTIF(Table3[[#All],[favorite color]],"red")</f>
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29:J36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>